--- a/biology/Botanique/Brachiaria_deflexa/Brachiaria_deflexa.xlsx
+++ b/biology/Botanique/Brachiaria_deflexa/Brachiaria_deflexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachiaria deflexa, le fonio à grosses graines, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales de l'Ancien Monde.
 Ce sont des plantes herbacées annuelles, cespiteuses, aux tiges (chaumes) dressées de 15 à 70 cm de long.
-Cette espèce fait partie du groupe des krebs, graminées sauvages faisant l'objet de cueillette à des fins alimentaires dans la région sahélienne, cependant une variété domestiquée est cultivée dans le Fouta-Djalon[2]. C'est aussi une mauvaise herbe (adventice) dont la présence dans les cultures est parfois tolérée, voire encouragée[3].
+Cette espèce fait partie du groupe des krebs, graminées sauvages faisant l'objet de cueillette à des fins alimentaires dans la région sahélienne, cependant une variété domestiquée est cultivée dans le Fouta-Djalon. C'est aussi une mauvaise herbe (adventice) dont la présence dans les cultures est parfois tolérée, voire encouragée.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 juin 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 juin 2017) :
 Brachiaria clavuliseta Chiov.
 Brachiaria deflexa var. sativa Portères
 Brachiaria glycerioides Chiov.
